--- a/laravel/public/inPerformancereport.xlsx
+++ b/laravel/public/inPerformancereport.xlsx
@@ -439,13 +439,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.13087759390376</v>
+        <v>0.9292245304915923</v>
       </c>
       <c r="C3">
-        <v>0.229717491330072</v>
+        <v>0.9036787003491061</v>
       </c>
       <c r="D3">
-        <v>0.3072073938854122</v>
+        <v>0.8857060298650654</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999514413483488</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -467,13 +467,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1371537709371008</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.245484701002023</v>
+        <v>0.8493014941334756</v>
       </c>
       <c r="D5">
-        <v>0.3334528956095474</v>
+        <v>0.7653753610782656</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -481,13 +481,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3501609541931563</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.4156627245295087</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4682373758395957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -495,13 +495,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.7549630223881316</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.8288715534807641</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8810898164368796</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4496011902638306</v>
+        <v>0.9561837821684742</v>
       </c>
       <c r="C8">
-        <v>0.5341307230366973</v>
+        <v>0.9555910513931566</v>
       </c>
       <c r="D8">
-        <v>0.6020756581413259</v>
+        <v>0.9552325766374533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -523,13 +523,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3714550714907918</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.550658530954114</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.6066708128152309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -537,13 +537,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.7408100210419172</v>
+        <v>0.9688476126856723</v>
       </c>
       <c r="C10">
-        <v>0.9870288848366355</v>
+        <v>0.9800504380651321</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9877973589437404</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -551,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.9743158648392818</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9185004923878308</v>
       </c>
       <c r="D11">
-        <v>0.8600086965929087</v>
+        <v>0.884147243431047</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -565,13 +565,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.799317850637523</v>
+        <v>0.6638669481613022</v>
       </c>
       <c r="C12">
-        <v>0.7584006469859814</v>
+        <v>0.7340711048059014</v>
       </c>
       <c r="D12">
-        <v>0.7408797205008794</v>
+        <v>0.7812340769043326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -579,13 +579,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5411919414911598</v>
+        <v>0.6077309529743242</v>
       </c>
       <c r="C13">
-        <v>0.7494067289424293</v>
+        <v>0.711683658464324</v>
       </c>
       <c r="D13">
-        <v>0.9113978335795171</v>
+        <v>0.7886983499355689</v>
       </c>
     </row>
     <row r="14" spans="1:4">
